--- a/Documentación_Proyecto-SoftEducation/Documentación_DefiniciónRoles.xlsx
+++ b/Documentación_Proyecto-SoftEducation/Documentación_DefiniciónRoles.xlsx
@@ -192,7 +192,23 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -204,22 +220,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,61 +1330,61 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -1403,28 +1403,28 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="R10" s="9" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="R10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1435,12 +1435,12 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -1449,12 +1449,12 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -1465,58 +1465,58 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="R15" s="9" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="I20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1525,12 +1525,12 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I21" s="5"/>
@@ -1539,12 +1539,12 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I22" s="5"/>
@@ -1555,108 +1555,108 @@
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I39" s="5" t="s">
@@ -1667,14 +1667,14 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="7"/>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I40" s="5"/>
@@ -1683,12 +1683,12 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="7"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I41" s="5"/>
@@ -1697,102 +1697,102 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="7"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R44" s="9" t="s">
+      <c r="R44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="R49" s="9" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="R49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R55" s="9" t="s">
+      <c r="R55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I57" s="5" t="s">
@@ -1803,12 +1803,12 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="7"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I58" s="5"/>
@@ -1827,85 +1827,98 @@
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R60" s="9" t="s">
+      <c r="R60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
     </row>
     <row r="65" spans="18:23" x14ac:dyDescent="0.25">
-      <c r="R65" s="9" t="s">
+      <c r="R65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
     </row>
     <row r="66" spans="18:23" x14ac:dyDescent="0.25">
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
     </row>
     <row r="67" spans="18:23" x14ac:dyDescent="0.25">
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
     </row>
     <row r="70" spans="18:23" x14ac:dyDescent="0.25">
-      <c r="R70" s="9" t="s">
+      <c r="R70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
     </row>
     <row r="71" spans="18:23" x14ac:dyDescent="0.25">
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
     </row>
     <row r="72" spans="18:23" x14ac:dyDescent="0.25">
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R19:W21"/>
+    <mergeCell ref="I20:N22"/>
+    <mergeCell ref="E2:Q4"/>
+    <mergeCell ref="B6:G8"/>
+    <mergeCell ref="R10:W12"/>
+    <mergeCell ref="B11:G13"/>
+    <mergeCell ref="R15:W17"/>
+    <mergeCell ref="R23:W25"/>
+    <mergeCell ref="R27:W29"/>
+    <mergeCell ref="B31:G33"/>
+    <mergeCell ref="R34:W36"/>
+    <mergeCell ref="I39:N41"/>
+    <mergeCell ref="R39:W41"/>
     <mergeCell ref="R65:W67"/>
     <mergeCell ref="R70:W72"/>
     <mergeCell ref="R44:W46"/>
@@ -1914,19 +1927,6 @@
     <mergeCell ref="R55:W57"/>
     <mergeCell ref="I57:N59"/>
     <mergeCell ref="R60:W62"/>
-    <mergeCell ref="R23:W25"/>
-    <mergeCell ref="R27:W29"/>
-    <mergeCell ref="B31:G33"/>
-    <mergeCell ref="R34:W36"/>
-    <mergeCell ref="I39:N41"/>
-    <mergeCell ref="R39:W41"/>
-    <mergeCell ref="E2:Q4"/>
-    <mergeCell ref="B6:G8"/>
-    <mergeCell ref="R10:W12"/>
-    <mergeCell ref="B11:G13"/>
-    <mergeCell ref="R15:W17"/>
-    <mergeCell ref="R19:W21"/>
-    <mergeCell ref="I20:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
